--- a/data/trans_dic/P1427-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1427-Habitat-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.02427150533197306</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.06288277612597841</v>
+        <v>0.0628827761259784</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.02596527802851419</v>
@@ -664,7 +664,7 @@
         <v>0.0188372314963449</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.05290399448471063</v>
+        <v>0.05290399448471064</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01199455920560876</v>
+        <v>0.01232148087639779</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.006869249296687488</v>
+        <v>0.006303854746245478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03212586701206287</v>
+        <v>0.03135392754904922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01786163531738195</v>
+        <v>0.01952593724041085</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01382605426591865</v>
+        <v>0.01437634591869957</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05161799581111234</v>
+        <v>0.05151835869186484</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0181451413502387</v>
+        <v>0.01796697889684998</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01223519142966074</v>
+        <v>0.01236883691706041</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04492574861688061</v>
+        <v>0.04457659202202616</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03441092526342335</v>
+        <v>0.03503974958585443</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02288296795608092</v>
+        <v>0.02227813900093313</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0566487219415307</v>
+        <v>0.05611819087381251</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04532950426439578</v>
+        <v>0.04607938481537118</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03861498793454013</v>
+        <v>0.0394602694689742</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07592858599904105</v>
+        <v>0.07660162168424746</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03596525740360693</v>
+        <v>0.03551521835804158</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02711213585186602</v>
+        <v>0.02716166226155138</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06112334682160609</v>
+        <v>0.06191547816158563</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.01648358073806713</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.03134146862651481</v>
+        <v>0.03134146862651482</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.02377864774475824</v>
@@ -773,7 +773,7 @@
         <v>0.01225529633467548</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.03097385411014312</v>
+        <v>0.03097385411014311</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01278816934619887</v>
+        <v>0.01266900663762248</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003489524004392763</v>
+        <v>0.003587775384124739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02201720484502427</v>
+        <v>0.02289916479591754</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01668057515284862</v>
+        <v>0.01742005584144066</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009987468008839828</v>
+        <v>0.009437230529265249</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02376335944199134</v>
+        <v>0.02414780907075876</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01738376523324656</v>
+        <v>0.01713816439675016</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.007731765151536212</v>
+        <v>0.008151500891502109</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02568223558367768</v>
+        <v>0.02542572928864686</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03307774921060024</v>
+        <v>0.03354717018877279</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01417603993987896</v>
+        <v>0.01391363905574682</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04047386927789881</v>
+        <v>0.04177188887677905</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03974966880205984</v>
+        <v>0.03964031208309943</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02705623794323801</v>
+        <v>0.02575692517288063</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03973920837980626</v>
+        <v>0.03976500161329213</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03127413514732041</v>
+        <v>0.03235472381928822</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01766450627760668</v>
+        <v>0.01735936972985233</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03852331658843166</v>
+        <v>0.03703058972481649</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006704773874073624</v>
+        <v>0.006949283857097342</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003823353003654192</v>
+        <v>0.003752387591817083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01396958778648813</v>
+        <v>0.01343963798957987</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01270365303212595</v>
+        <v>0.01254168017290078</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01150304608961258</v>
+        <v>0.01178786057025943</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03676574791350125</v>
+        <v>0.0366366473739008</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01152789245404119</v>
+        <v>0.01147145454755899</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.009448883010666499</v>
+        <v>0.00959430860170702</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02774614628604484</v>
+        <v>0.02778977815717089</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02384240373021183</v>
+        <v>0.02578076988104985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01849090224120622</v>
+        <v>0.01875948918443049</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03371441413542507</v>
+        <v>0.03363335481060394</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03562053897945001</v>
+        <v>0.03451045410940794</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03332537515622208</v>
+        <v>0.03428573148967761</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06268538124049876</v>
+        <v>0.06125355910957485</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02620066089605867</v>
+        <v>0.02579868365597853</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02223322370041076</v>
+        <v>0.02270666418605597</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04307046920969609</v>
+        <v>0.04315976499873529</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.02110028290489016</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.03701034713245771</v>
+        <v>0.03701034713245772</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01394700182542602</v>
+        <v>0.01389124451060412</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005982471953679816</v>
+        <v>0.006289320776482398</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02257908996452947</v>
+        <v>0.02257767956391398</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01803012960798436</v>
+        <v>0.0182609781938622</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01953909010000749</v>
+        <v>0.02021864047766152</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03400519589844934</v>
+        <v>0.03397332169961266</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01857052910358718</v>
+        <v>0.0184846322419473</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01536932180683485</v>
+        <v>0.01510558486026799</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03029421461149593</v>
+        <v>0.03071505143804018</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03505162162883115</v>
+        <v>0.0354158570772488</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01974019740697026</v>
+        <v>0.02007742995432137</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04130864996004699</v>
+        <v>0.04164027224357599</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03856702527804883</v>
+        <v>0.03929520290034984</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.042365474162424</v>
+        <v>0.04218342016061993</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05452843126442065</v>
+        <v>0.05287744597028751</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03283494963490743</v>
+        <v>0.03394856713349888</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02853245327710385</v>
+        <v>0.02817677601981397</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04443828728552767</v>
+        <v>0.04432231201718699</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.0166962359652568</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.03789208662551559</v>
+        <v>0.03789208662551558</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01520251524527415</v>
+        <v>0.01494209637510456</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007264238715259309</v>
+        <v>0.007430388268330931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02668816057597135</v>
+        <v>0.02617201660941181</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02156891674828244</v>
+        <v>0.02150028959023025</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01796742505529133</v>
+        <v>0.01764986302069354</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03961516006731217</v>
+        <v>0.04017999867252654</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01957924721141818</v>
+        <v>0.01985393277292434</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01371901388429192</v>
+        <v>0.01381790514721977</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03460069784431748</v>
+        <v>0.03474782421906175</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02530010572625466</v>
+        <v>0.02534816209930857</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01397583083922973</v>
+        <v>0.01413992815500514</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03708406509894682</v>
+        <v>0.03608254743302292</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03244326538359218</v>
+        <v>0.0320313471840005</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02855033919060121</v>
+        <v>0.02837992088294745</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0499970974055269</v>
+        <v>0.05079300706367931</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02704997425167421</v>
+        <v>0.02758938401501106</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01982103987460975</v>
+        <v>0.02019220553175402</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04171612553916271</v>
+        <v>0.04197822691233973</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8438</v>
+        <v>8668</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4635</v>
+        <v>4254</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22190</v>
+        <v>21656</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12450</v>
+        <v>13611</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9303</v>
+        <v>9673</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>37786</v>
+        <v>37713</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25413</v>
+        <v>25163</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16489</v>
+        <v>16669</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>63918</v>
+        <v>63421</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24207</v>
+        <v>24649</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15441</v>
+        <v>15033</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39128</v>
+        <v>38761</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>31597</v>
+        <v>32120</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25982</v>
+        <v>26550</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>55582</v>
+        <v>56075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>50370</v>
+        <v>49740</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>36537</v>
+        <v>36604</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>86963</v>
+        <v>88090</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13018</v>
+        <v>12896</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3568</v>
+        <v>3668</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23094</v>
+        <v>24019</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>17164</v>
+        <v>17925</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10416</v>
+        <v>9842</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>25420</v>
+        <v>25832</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>35583</v>
+        <v>35080</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>15969</v>
+        <v>16836</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>54412</v>
+        <v>53868</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33671</v>
+        <v>34149</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14494</v>
+        <v>14226</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42454</v>
+        <v>43815</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>40901</v>
+        <v>40789</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>28217</v>
+        <v>26862</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>42510</v>
+        <v>42538</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>64016</v>
+        <v>66228</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>36483</v>
+        <v>35853</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>81617</v>
+        <v>78455</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5080</v>
+        <v>5265</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2904</v>
+        <v>2850</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11148</v>
+        <v>10726</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9873</v>
+        <v>9747</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9030</v>
+        <v>9254</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>29837</v>
+        <v>29732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17693</v>
+        <v>17606</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14594</v>
+        <v>14819</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>44660</v>
+        <v>44730</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18064</v>
+        <v>19532</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14045</v>
+        <v>14249</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26906</v>
+        <v>26841</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27683</v>
+        <v>26821</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26161</v>
+        <v>26915</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50871</v>
+        <v>49709</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>40213</v>
+        <v>39596</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34341</v>
+        <v>35072</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>69326</v>
+        <v>69469</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13218</v>
+        <v>13165</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5609</v>
+        <v>5897</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22355</v>
+        <v>22353</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18966</v>
+        <v>19209</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20394</v>
+        <v>21104</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>38005</v>
+        <v>37970</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>37134</v>
+        <v>36963</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>30452</v>
+        <v>29929</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>63851</v>
+        <v>64738</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>33220</v>
+        <v>33565</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18508</v>
+        <v>18824</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40898</v>
+        <v>41226</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>40569</v>
+        <v>41335</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>44220</v>
+        <v>44030</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>60943</v>
+        <v>59098</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>65658</v>
+        <v>67885</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>56533</v>
+        <v>55828</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>93662</v>
+        <v>93418</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>52096</v>
+        <v>51203</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24657</v>
+        <v>25221</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>94149</v>
+        <v>92328</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>76680</v>
+        <v>76436</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>63686</v>
+        <v>62561</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>147801</v>
+        <v>149909</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>136700</v>
+        <v>138618</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>95195</v>
+        <v>95881</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>251155</v>
+        <v>252223</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>86698</v>
+        <v>86863</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>47439</v>
+        <v>47996</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>130823</v>
+        <v>127290</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>115339</v>
+        <v>113875</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>101198</v>
+        <v>100594</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>186536</v>
+        <v>189505</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>188860</v>
+        <v>192626</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>137536</v>
+        <v>140112</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>302804</v>
+        <v>304706</v>
       </c>
     </row>
     <row r="24">
